--- a/sputnik/personal/ee/56ee.xlsx
+++ b/sputnik/personal/ee/56ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Т1</t>
   </si>
@@ -24,18 +24,9 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -52,6 +43,27 @@
   </si>
   <si>
     <t>начислены пени 4205,71 х (202-40) дн х 0,1% = 681,33</t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>итого с пенями</t>
+  </si>
+  <si>
+    <t>к доплате</t>
   </si>
 </sst>
 </file>
@@ -59,7 +71,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -117,7 +129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -144,34 +156,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -209,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -222,7 +206,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -231,35 +215,24 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -568,136 +541,160 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:F8"/>
+      <selection activeCell="G11" sqref="G9:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
-        <v>43740</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="F1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
-    </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>43740</v>
-      </c>
+      <c r="H1" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>43358</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>9893</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3696</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>43536</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3">
-        <v>11225</v>
-      </c>
-      <c r="D3" s="3">
-        <f>SUM(C3,-C6)</f>
-        <v>652</v>
-      </c>
-      <c r="E3" s="8">
+      <c r="C4" s="3">
+        <v>10573</v>
+      </c>
+      <c r="D4" s="3">
+        <f>SUM(C4,-C2)</f>
+        <v>680</v>
+      </c>
+      <c r="E4" s="8">
         <v>4.57</v>
-      </c>
-      <c r="F3" s="6">
-        <f>D3*E3</f>
-        <v>2979.6400000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>4723</v>
-      </c>
-      <c r="D4" s="3">
-        <f>SUM(C4,-C7)</f>
-        <v>513</v>
-      </c>
-      <c r="E4" s="3">
-        <v>2.39</v>
       </c>
       <c r="F4" s="6">
         <f>D4*E4</f>
-        <v>1226.0700000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
-        <v>43536</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-      <c r="H5" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>3107.6000000000004</v>
+      </c>
+      <c r="G4" s="10">
+        <f>SUM(F4,F5)</f>
+        <v>4336.0600000000004</v>
+      </c>
+      <c r="H4" s="2">
+        <v>4336.0600000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4210</v>
+      </c>
+      <c r="D5" s="3">
+        <f>SUM(C5,-C3)</f>
+        <v>514</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2.39</v>
+      </c>
+      <c r="F5" s="6">
+        <f>D5*E5</f>
+        <v>1228.46</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43536</v>
+        <v>43740</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>10573</v>
+        <v>11225</v>
       </c>
       <c r="D6" s="3">
-        <f>SUM(C6,-C9)</f>
-        <v>680</v>
+        <f>SUM(C6,-C4)</f>
+        <v>652</v>
       </c>
       <c r="E6" s="8">
         <v>4.57</v>
       </c>
       <c r="F6" s="6">
         <f>D6*E6</f>
-        <v>3107.6000000000004</v>
+        <v>2979.6400000000003</v>
+      </c>
+      <c r="G6" s="10">
+        <f>SUM(F6,F7)</f>
+        <v>4205.7100000000009</v>
+      </c>
+      <c r="H6" s="2">
+        <v>4205.71</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -706,177 +703,126 @@
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>4210</v>
+        <v>4723</v>
       </c>
       <c r="D7" s="3">
-        <f>SUM(C7,-C10)</f>
-        <v>514</v>
+        <f>SUM(C7,-C5)</f>
+        <v>513</v>
       </c>
       <c r="E7" s="3">
         <v>2.39</v>
       </c>
       <c r="F7" s="6">
         <f>D7*E7</f>
-        <v>1228.46</v>
-      </c>
+        <v>1226.0700000000002</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="10">
+        <f>SUM(G2:G7)</f>
+        <v>8541.77</v>
+      </c>
+      <c r="H8" s="10">
+        <f>SUM(H2:H7)</f>
+        <v>8541.77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>43358</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>43358</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>9893</v>
-      </c>
-      <c r="D9" s="3">
-        <f>SUM(C9,-C11)</f>
-        <v>859</v>
-      </c>
-      <c r="E9" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F9" s="6">
-        <f>D9*E9</f>
-        <v>3865.5</v>
-      </c>
+      <c r="B9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="2">
+        <v>367.92</v>
+      </c>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3">
-        <v>3696</v>
-      </c>
-      <c r="D10" s="3">
-        <f>SUM(C10,-C12)</f>
-        <v>197</v>
-      </c>
-      <c r="E10" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F10" s="6">
-        <f>D10*E10</f>
-        <v>462.95000000000005</v>
-      </c>
+      <c r="A10" s="9">
+        <v>43536</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="2">
+        <v>598.38</v>
+      </c>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>43232</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="5">
-        <v>9034</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="A11" s="9">
+        <v>43740</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="2">
+        <v>681.33</v>
+      </c>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5">
-        <v>3499</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="10">
+        <f>SUM(G6:G11)</f>
+        <v>14395.11</v>
+      </c>
+      <c r="H12" s="10">
+        <f>SUM(H6:H11)</f>
+        <v>12747.48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="10">
+        <f>SUM(H12,-G12)</f>
+        <v>-1647.630000000001</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B11:F11"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/56ee.xlsx
+++ b/sputnik/personal/ee/56ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Т1</t>
   </si>
@@ -193,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -234,6 +234,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -541,10 +543,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G9:G11"/>
+      <selection activeCell="G9" sqref="G9:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -748,7 +750,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="2">
+      <c r="G9" s="17">
         <v>367.92</v>
       </c>
       <c r="H9" s="2"/>
@@ -764,7 +766,7 @@
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="2">
+      <c r="G10" s="17">
         <v>598.38</v>
       </c>
       <c r="H10" s="2"/>
@@ -780,41 +782,92 @@
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="15"/>
-      <c r="G11" s="2">
+      <c r="G11" s="17">
         <v>681.33</v>
       </c>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
+      <c r="A12" s="4">
+        <v>44113</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>11525</v>
+      </c>
+      <c r="D12" s="3">
+        <f>SUM(C12,-C6)</f>
+        <v>300</v>
+      </c>
+      <c r="E12" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="6">
+        <f>D12*E12</f>
+        <v>1413</v>
+      </c>
+      <c r="G12" s="10">
+        <f>SUM(F12,F13)</f>
+        <v>2050.5</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2050.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>4973</v>
+      </c>
+      <c r="D13" s="3">
+        <f>SUM(C13,-C7)</f>
+        <v>250</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="6">
+        <f>D13*E13</f>
+        <v>637.5</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G14" s="10">
         <f>SUM(G6:G11)</f>
         <v>14395.11</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H14" s="10">
         <f>SUM(H6:H11)</f>
         <v>12747.48</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="10">
-        <f>SUM(H12,-G12)</f>
+      <c r="G15" s="2"/>
+      <c r="H15" s="16">
+        <f>SUM(H14,-G14)</f>
         <v>-1647.630000000001</v>
       </c>
     </row>

--- a/sputnik/personal/ee/56ee.xlsx
+++ b/sputnik/personal/ee/56ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>Т1</t>
   </si>
@@ -36,15 +36,6 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>начислены пени 4328,45 х 85 дн х 0,1% = 367,92</t>
-  </si>
-  <si>
-    <t>начислены пени 4336,06 х 138 дн х 0,1% = 598,38</t>
-  </si>
-  <si>
-    <t>начислены пени 4205,71 х (202-40) дн х 0,1% = 681,33</t>
-  </si>
-  <si>
     <t>День/ ночь</t>
   </si>
   <si>
@@ -57,13 +48,19 @@
     <t>оплачено</t>
   </si>
   <si>
-    <t>итого за период</t>
-  </si>
-  <si>
     <t>итого с пенями</t>
   </si>
   <si>
     <t>к доплате</t>
+  </si>
+  <si>
+    <t>начислены пени  85 дн</t>
+  </si>
+  <si>
+    <t>начислены пени  138 дн</t>
+  </si>
+  <si>
+    <t>начислены пени  162 дн</t>
   </si>
 </sst>
 </file>
@@ -104,21 +101,19 @@
       <charset val="204"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -193,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -219,23 +214,29 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -543,10 +544,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:G11"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -568,7 +569,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>4</v>
@@ -580,13 +581,13 @@
         <v>2</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -722,121 +723,145 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="10">
-        <f>SUM(G2:G7)</f>
-        <v>8541.77</v>
-      </c>
-      <c r="H8" s="10">
-        <f>SUM(H2:H7)</f>
-        <v>8541.77</v>
-      </c>
+      <c r="A8" s="9">
+        <v>43358</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="17">
+        <v>0</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0</v>
+      </c>
+      <c r="F8" s="19">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
+        <v>367.92</v>
+      </c>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
-        <v>43358</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="17">
-        <v>367.92</v>
+        <v>43536</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="18">
+        <v>0</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="18">
+        <v>0</v>
+      </c>
+      <c r="F9" s="18">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
+        <v>598.38</v>
       </c>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
-        <v>43536</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="17">
-        <v>598.38</v>
+        <v>43740</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="18">
+        <v>0</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="18">
+        <v>0</v>
+      </c>
+      <c r="F10" s="18">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12">
+        <v>681.33</v>
       </c>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>43740</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="17">
-        <v>681.33</v>
-      </c>
-      <c r="H11" s="2"/>
+      <c r="A11" s="4">
+        <v>44113</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>11525</v>
+      </c>
+      <c r="D11" s="3">
+        <f>SUM(C11,-C6)</f>
+        <v>300</v>
+      </c>
+      <c r="E11" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F11" s="6">
+        <f>D11*E11</f>
+        <v>1413</v>
+      </c>
+      <c r="G11" s="10">
+        <f>SUM(F11,F12)</f>
+        <v>2050.5</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2050.5</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>44113</v>
-      </c>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="3">
-        <v>11525</v>
+        <v>4973</v>
       </c>
       <c r="D12" s="3">
-        <f>SUM(C12,-C6)</f>
-        <v>300</v>
-      </c>
-      <c r="E12" s="8">
-        <v>4.71</v>
+        <f>SUM(C12,-C7)</f>
+        <v>250</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2.5499999999999998</v>
       </c>
       <c r="F12" s="6">
         <f>D12*E12</f>
-        <v>1413</v>
-      </c>
-      <c r="G12" s="10">
-        <f>SUM(F12,F13)</f>
-        <v>2050.5</v>
-      </c>
-      <c r="H12" s="2">
-        <v>2050.5</v>
-      </c>
+        <v>637.5</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>4973</v>
-      </c>
-      <c r="D13" s="3">
-        <f>SUM(C13,-C7)</f>
-        <v>250</v>
-      </c>
-      <c r="E13" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F13" s="6">
-        <f>D13*E13</f>
-        <v>637.5</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="10">
+        <f>SUM(G2:G12)</f>
+        <v>12239.9</v>
+      </c>
+      <c r="H13" s="10">
+        <f>SUM(H2:H12)</f>
+        <v>10592.27</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
@@ -845,41 +870,18 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="10">
-        <f>SUM(G6:G11)</f>
-        <v>14395.11</v>
-      </c>
-      <c r="H14" s="10">
-        <f>SUM(H6:H11)</f>
-        <v>12747.48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="16">
-        <f>SUM(H14,-G14)</f>
-        <v>-1647.630000000001</v>
+        <v>11</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="11">
+        <f>SUM(H13,-G13)</f>
+        <v>-1647.6299999999992</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B11:F11"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sputnik/personal/ee/56ee.xlsx
+++ b/sputnik/personal/ee/56ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Т1</t>
   </si>
@@ -544,10 +544,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I14" sqref="I14:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -846,35 +846,86 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
+      <c r="A13" s="4">
+        <v>44342</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>12325</v>
+      </c>
+      <c r="D13" s="3">
+        <f>SUM(C13,-C11)</f>
+        <v>800</v>
+      </c>
+      <c r="E13" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F13" s="6">
+        <f>D13*E13</f>
+        <v>3768</v>
+      </c>
+      <c r="G13" s="10">
+        <f>SUM(F13,F14)</f>
+        <v>5298</v>
+      </c>
+      <c r="H13" s="2">
+        <v>5298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>5573</v>
+      </c>
+      <c r="D14" s="3">
+        <f>SUM(C14,-C12)</f>
+        <v>600</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F14" s="6">
+        <f>D14*E14</f>
+        <v>1530</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G15" s="10">
         <f>SUM(G2:G12)</f>
         <v>12239.9</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H15" s="10">
         <f>SUM(H2:H12)</f>
         <v>10592.27</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="11">
-        <f>SUM(H13,-G13)</f>
+      <c r="G16" s="2"/>
+      <c r="H16" s="11">
+        <f>SUM(H15,-G15)</f>
         <v>-1647.6299999999992</v>
       </c>
     </row>

--- a/sputnik/personal/ee/56ee.xlsx
+++ b/sputnik/personal/ee/56ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>Т1</t>
   </si>
@@ -188,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -236,6 +236,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -544,10 +547,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:I15"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -886,47 +889,99 @@
         <f>SUM(C14,-C12)</f>
         <v>600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="20">
         <v>2.5499999999999998</v>
       </c>
       <c r="F14" s="6">
         <f>D14*E14</f>
         <v>1530</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
+      <c r="A15" s="4">
+        <v>44445</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>12925</v>
+      </c>
+      <c r="D15" s="3">
+        <f>SUM(C15,-C13)</f>
+        <v>600</v>
+      </c>
+      <c r="E15" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="F15" s="6">
+        <f>D15*E15</f>
+        <v>2976</v>
+      </c>
+      <c r="G15" s="10">
+        <f>SUM(F15,F16)</f>
+        <v>2976</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>5573</v>
+      </c>
+      <c r="D16" s="3">
+        <f>SUM(C16,-C14)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <f>D16*G16</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="10">
-        <f>SUM(G2:G12)</f>
-        <v>12239.9</v>
-      </c>
-      <c r="H15" s="10">
-        <f>SUM(H2:H12)</f>
-        <v>10592.27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
+      <c r="G17" s="10">
+        <f>SUM(G2:G16)</f>
+        <v>20516.45</v>
+      </c>
+      <c r="H17" s="10">
+        <f>SUM(H2:H16)</f>
+        <v>18866.27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="11">
-        <f>SUM(H15,-G15)</f>
-        <v>-1647.6299999999992</v>
+      <c r="G18" s="2"/>
+      <c r="H18" s="11">
+        <f>SUM(H17,-G17)</f>
+        <v>-1650.1800000000003</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/56ee.xlsx
+++ b/sputnik/personal/ee/56ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
   <si>
     <t>Т1</t>
   </si>
@@ -67,8 +67,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ _₽"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -213,9 +214,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -238,7 +236,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -547,10 +550,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -606,8 +609,8 @@
       <c r="D2" s="3"/>
       <c r="E2" s="8"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="2"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -620,8 +623,8 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -644,11 +647,11 @@
         <f>D4*E4</f>
         <v>3107.6000000000004</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="18">
         <f>SUM(F4,F5)</f>
         <v>4336.0600000000004</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="18">
         <v>4336.0600000000004</v>
       </c>
     </row>
@@ -671,8 +674,8 @@
         <f>D5*E5</f>
         <v>1228.46</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -695,11 +698,11 @@
         <f>D6*E6</f>
         <v>2979.6400000000003</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="18">
         <f>SUM(F6,F7)</f>
         <v>4205.7100000000009</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="18">
         <v>4205.71</v>
       </c>
     </row>
@@ -722,80 +725,80 @@
         <f>D7*E7</f>
         <v>1226.0700000000002</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>43358</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="17">
-        <v>0</v>
-      </c>
-      <c r="D8" s="15" t="s">
+      <c r="B8" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="14">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="17">
-        <v>0</v>
-      </c>
-      <c r="F8" s="19">
-        <v>0</v>
-      </c>
-      <c r="G8" s="12">
+      <c r="E8" s="14">
+        <v>0</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0</v>
+      </c>
+      <c r="G8" s="19">
         <v>367.92</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>43536</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="18">
-        <v>0</v>
-      </c>
-      <c r="D9" s="16" t="s">
+      <c r="B9" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="18">
-        <v>0</v>
-      </c>
-      <c r="F9" s="18">
-        <v>0</v>
-      </c>
-      <c r="G9" s="12">
+      <c r="E9" s="15">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="19">
         <v>598.38</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>43740</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="18">
-        <v>0</v>
-      </c>
-      <c r="D10" s="16" t="s">
+      <c r="B10" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="18">
-        <v>0</v>
-      </c>
-      <c r="F10" s="18">
-        <v>0</v>
-      </c>
-      <c r="G10" s="12">
+      <c r="E10" s="15">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0</v>
+      </c>
+      <c r="G10" s="19">
         <v>681.33</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -818,11 +821,11 @@
         <f>D11*E11</f>
         <v>1413</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="18">
         <f>SUM(F11,F12)</f>
         <v>2050.5</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="18">
         <v>2050.5</v>
       </c>
     </row>
@@ -845,8 +848,8 @@
         <f>D12*E12</f>
         <v>637.5</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -859,7 +862,7 @@
         <v>12325</v>
       </c>
       <c r="D13" s="3">
-        <f>SUM(C13,-C11)</f>
+        <f t="shared" ref="D13:D22" si="0">SUM(C13,-C11)</f>
         <v>800</v>
       </c>
       <c r="E13" s="8">
@@ -869,11 +872,11 @@
         <f>D13*E13</f>
         <v>3768</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="18">
         <f>SUM(F13,F14)</f>
         <v>5298</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="18">
         <v>5298</v>
       </c>
     </row>
@@ -886,20 +889,20 @@
         <v>5573</v>
       </c>
       <c r="D14" s="3">
-        <f>SUM(C14,-C12)</f>
+        <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="17">
         <v>2.5499999999999998</v>
       </c>
       <c r="F14" s="6">
         <f>D14*E14</f>
         <v>1530</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2"/>
+      <c r="G14" s="20">
+        <v>0</v>
+      </c>
+      <c r="H14" s="18"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -912,7 +915,7 @@
         <v>12925</v>
       </c>
       <c r="D15" s="3">
-        <f>SUM(C15,-C13)</f>
+        <f t="shared" si="0"/>
         <v>600</v>
       </c>
       <c r="E15" s="8">
@@ -922,11 +925,11 @@
         <f>D15*E15</f>
         <v>2976</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="18">
         <f>SUM(F15,F16)</f>
         <v>2976</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="18">
         <v>2976</v>
       </c>
     </row>
@@ -939,49 +942,200 @@
         <v>5573</v>
       </c>
       <c r="D16" s="3">
-        <f>SUM(C16,-C14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F16" s="6">
         <f>D16*G16</f>
         <v>0</v>
       </c>
-      <c r="G16" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="H16" s="2"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="18"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
+      <c r="A17" s="4">
+        <v>44526</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>18480</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>5555</v>
+      </c>
+      <c r="E17" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="F17" s="6">
+        <f>D17*E17</f>
+        <v>27552.799999999999</v>
+      </c>
+      <c r="G17" s="18">
+        <f>SUM(F17,F18)</f>
+        <v>35330.160000000003</v>
+      </c>
+      <c r="H17" s="18">
+        <v>4117.84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
+        <v>8475</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>2902</v>
+      </c>
+      <c r="E18" s="17">
+        <v>2.68</v>
+      </c>
+      <c r="F18" s="6">
+        <f>D18*E18</f>
+        <v>7777.3600000000006</v>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>44537</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>19980</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="E19" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="F19" s="6">
+        <f>D19*E19</f>
+        <v>7440</v>
+      </c>
+      <c r="G19" s="18">
+        <f>SUM(F19,F20)</f>
+        <v>9986</v>
+      </c>
+      <c r="H19" s="18">
+        <v>9986</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3">
+        <v>9425</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>950</v>
+      </c>
+      <c r="E20" s="17">
+        <v>2.68</v>
+      </c>
+      <c r="F20" s="6">
+        <f>D20*E20</f>
+        <v>2546</v>
+      </c>
+      <c r="G20" s="20"/>
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>44539</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>19980</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="F21" s="6">
+        <f>D21*E21</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="18">
+        <f>SUM(F21,F22)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="18">
+        <v>25344.16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>9425</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="17">
+        <v>2.68</v>
+      </c>
+      <c r="F22" s="6">
+        <f>D22*E22</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="20"/>
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="10">
-        <f>SUM(G2:G16)</f>
-        <v>20516.45</v>
-      </c>
-      <c r="H17" s="10">
-        <f>SUM(H2:H16)</f>
-        <v>18866.27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
+      <c r="G23" s="18">
+        <f>SUM(G2:G22)</f>
+        <v>65830.06</v>
+      </c>
+      <c r="H23" s="18">
+        <f>SUM(H2:H22)</f>
+        <v>58314.270000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="11">
-        <f>SUM(H17,-G17)</f>
-        <v>-1650.1800000000003</v>
+      <c r="G24" s="18"/>
+      <c r="H24" s="19">
+        <f>SUM(H23,-G23)</f>
+        <v>-7515.7899999999936</v>
       </c>
     </row>
   </sheetData>
